--- a/sample_output.xlsx
+++ b/sample_output.xlsx
@@ -466,7 +466,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>John</t>
         </is>
@@ -485,12 +485,13 @@
       <c r="E2" t="n">
         <v>5000</v>
       </c>
-      <c r="F2" t="n">
-        <v>75000</v>
+      <c r="F2">
+        <f>E2+F2</f>
+        <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Emily</t>
         </is>
@@ -509,12 +510,13 @@
       <c r="E3" t="n">
         <v>3000</v>
       </c>
-      <c r="F3" t="n">
-        <v>53000</v>
+      <c r="F3">
+        <f>E3+F3</f>
+        <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Michael</t>
         </is>
@@ -533,12 +535,13 @@
       <c r="E4" t="n">
         <v>8000</v>
       </c>
-      <c r="F4" t="n">
-        <v>98000</v>
+      <c r="F4">
+        <f>E4+F4</f>
+        <v/>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Sarah</t>
         </is>
@@ -557,12 +560,13 @@
       <c r="E5" t="n">
         <v>6000</v>
       </c>
-      <c r="F5" t="n">
-        <v>86000</v>
+      <c r="F5">
+        <f>E5+F5</f>
+        <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Robert</t>
         </is>
@@ -581,8 +585,9 @@
       <c r="E6" t="n">
         <v>5500</v>
       </c>
-      <c r="F6" t="n">
-        <v>80500</v>
+      <c r="F6">
+        <f>E6+F6</f>
+        <v/>
       </c>
     </row>
   </sheetData>
